--- a/Team Project CSE360/src/Game Information/Product Backlog.xlsx
+++ b/Team Project CSE360/src/Game Information/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -123,16 +123,13 @@
     <t>Low</t>
   </si>
   <si>
-    <t>See my Statistics</t>
-  </si>
-  <si>
     <t>Enter Name</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>See my Game Statistics</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -556,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -580,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -604,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -628,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -652,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -676,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -740,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -761,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -783,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -843,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -951,10 +948,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>

--- a/Team Project CSE360/src/Game Information/Product Backlog.xlsx
+++ b/Team Project CSE360/src/Game Information/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>See my Game Statistics</t>
+  </si>
+  <si>
+    <t>We made it so that there are 3 turns in a game by default. Perhaps in a leter update players will be able to change the number of turns per game.</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The assumption is that a name is unique for a user but as of yet there is no way to ensure this assumption. This is something to do fro a future update. </t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -553,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -563,6 +572,9 @@
       </c>
       <c r="F3" t="s">
         <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -875,6 +887,9 @@
       </c>
       <c r="F17" s="12" t="s">
         <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="N17" s="7"/>
     </row>
